--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,103 +61,112 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -696,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7597402597402597</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C6">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>407</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5416666666666666</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8627450980392157</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3928571428571428</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -942,267 +939,147 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C10">
-        <v>79</v>
-      </c>
-      <c r="D10">
-        <v>79</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>154</v>
-      </c>
-      <c r="J10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L11">
+        <v>95</v>
+      </c>
+      <c r="M11">
+        <v>95</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.7890625</v>
+      </c>
+      <c r="L12">
+        <v>101</v>
+      </c>
+      <c r="M12">
+        <v>101</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L10">
-        <v>42</v>
-      </c>
-      <c r="M10">
-        <v>42</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>67</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8125</v>
-      </c>
-      <c r="L11">
+      <c r="M13">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L14">
+        <v>38</v>
+      </c>
+      <c r="M14">
+        <v>38</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1375</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>69</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L12">
-        <v>45</v>
-      </c>
-      <c r="M12">
-        <v>45</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>97</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L13">
-        <v>20</v>
-      </c>
-      <c r="M13">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.05913978494623656</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>175</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7123287671232876</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1240,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7058823529411765</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1266,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1292,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6896551724137931</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1318,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1344,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L21">
         <v>39</v>
       </c>
-      <c r="K21">
-        <v>0.68</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
       <c r="M21">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1370,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6363636363636364</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1396,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1422,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="M24">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1448,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1474,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5868544600938967</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1500,47 +1377,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L27">
+        <v>44</v>
+      </c>
+      <c r="M27">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>45</v>
-      </c>
-      <c r="K27">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L27">
-        <v>11</v>
-      </c>
-      <c r="M27">
-        <v>11</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>8</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5357142857142857</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1552,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5069444444444444</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L29">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1578,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1604,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4728682170542636</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1630,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>68</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3478260869565217</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1656,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.2894736842105263</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L33">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1682,7 +1559,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.02125279642058166</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.02108768035516093</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.01168770453482936</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>29</v>
+      </c>
+      <c r="N36">
+        <v>0.86</v>
+      </c>
+      <c r="O36">
+        <v>0.14</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.007409793814432989</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>0.88</v>
+      </c>
+      <c r="O37">
+        <v>0.12</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3081</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -55,112 +58,106 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -532,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7647058823529411</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -643,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5993150684931506</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2112403100775194</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>407</v>
+        <v>118</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
@@ -793,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.201058201058201</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C7">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="D7">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>151</v>
+        <v>403</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1543624161073825</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,69 +858,45 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L8">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <v>47</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L8">
-        <v>23</v>
-      </c>
-      <c r="M8">
-        <v>23</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="C9">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>228</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8448275862068966</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,21 +908,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -961,21 +934,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -987,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1013,47 +986,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="M13">
-        <v>28</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1065,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7222222222222222</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1091,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7183098591549296</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1117,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7075471698113207</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1143,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1169,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6276595744680851</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1195,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1221,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6190476190476191</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1247,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6170212765957447</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1273,12 +1246,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.5625</v>
@@ -1304,16 +1277,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5169712793733682</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L24">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1325,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5111111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1351,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1377,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4943820224719101</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1403,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4764705882352941</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L28">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1429,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>178</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4461538461538462</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1455,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4102564102564102</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1481,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4067796610169492</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L31">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="M31">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1507,47 +1480,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>0.3835616438356164</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>45</v>
-      </c>
-      <c r="K32">
-        <v>0.3765690376569037</v>
-      </c>
-      <c r="L32">
-        <v>90</v>
-      </c>
-      <c r="M32">
-        <v>90</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>149</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3698630136986301</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1559,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.02125279642058166</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1585,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>875</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.02108768035516093</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1611,59 +1584,59 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.01168770453482936</v>
+        <v>0.01355773726040206</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N36">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O36">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2114</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.007409793814432989</v>
+        <v>0.009017713365539453</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N37">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="O37">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>3081</v>
+        <v>3077</v>
       </c>
     </row>
   </sheetData>
